--- a/라키비움_공통업무 단위과제 비교.xlsx
+++ b/라키비움_공통업무 단위과제 비교.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="21495" windowHeight="11820"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="21495" windowHeight="11820" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="사무위임전결기준" sheetId="1" r:id="rId1"/>
     <sheet name="처리과공통" sheetId="4" r:id="rId2"/>
+    <sheet name="처리과공통재정리" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="126">
   <si>
     <t>부서공통</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -270,10 +271,6 @@
   </si>
   <si>
     <t>기록관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부서장업무</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -456,6 +453,74 @@
   </si>
   <si>
     <t>단위과제 -&gt; 적용불가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단위업무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부서공통</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부서장업무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>법무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보안</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세업무내역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문서관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>민원사무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보안관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수시감사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복무관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서무일반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예산관리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -463,7 +528,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -505,8 +570,22 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -516,6 +595,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,7 +628,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -559,11 +644,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -861,7 +961,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -873,13 +973,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17.25" thickBot="1">
       <c r="A1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>109</v>
+      <c r="C1" s="5" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" thickTop="1">
@@ -1445,17 +1545,17 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="70" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="A1:F20"/>
+      <selection activeCell="G20" sqref="A1:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1465,29 +1565,33 @@
     <col min="4" max="4" width="13.875" style="3" customWidth="1"/>
     <col min="5" max="5" width="13.625" style="3" customWidth="1"/>
     <col min="6" max="6" width="67.5" customWidth="1"/>
+    <col min="7" max="7" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.25" thickBot="1">
+    <row r="1" spans="1:7" ht="17.25" thickBot="1">
       <c r="A1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="17.25" thickTop="1">
+        <v>97</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="17.25" thickTop="1">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1495,7 +1599,7 @@
         <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D2" s="3">
         <v>5</v>
@@ -1504,10 +1608,11 @@
         <v>10</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="33">
+        <v>96</v>
+      </c>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" ht="33">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1515,8 +1620,438 @@
         <v>63</v>
       </c>
       <c r="C3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="3">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3">
+        <v>5</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="7">
+        <v>10</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" t="s">
         <v>68</v>
       </c>
+      <c r="D5" s="3">
+        <v>10</v>
+      </c>
+      <c r="E5" s="3">
+        <v>3</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="3">
+        <v>5</v>
+      </c>
+      <c r="E6" s="3">
+        <v>3</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="9">
+        <v>10</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="3">
+        <v>3</v>
+      </c>
+      <c r="E9" s="3">
+        <v>3</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="3">
+        <v>5</v>
+      </c>
+      <c r="E11" s="3">
+        <v>5</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="3">
+        <v>3</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" ht="33">
+      <c r="A13" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="9">
+        <v>3</v>
+      </c>
+      <c r="E13" s="9">
+        <v>5</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="9">
+        <v>5</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="3">
+        <v>3</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="9">
+        <v>5</v>
+      </c>
+      <c r="E16" s="9">
+        <v>5</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="9">
+        <v>5</v>
+      </c>
+      <c r="E17" s="9">
+        <v>5</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G17" s="9"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="3">
+        <v>5</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="9">
+        <v>5</v>
+      </c>
+      <c r="E19" s="9">
+        <v>10</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="9"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="3">
+        <v>5</v>
+      </c>
+      <c r="E20" s="3">
+        <v>5</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G20" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="75" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="2" max="2" width="17.875" customWidth="1"/>
+    <col min="3" max="3" width="25.75" customWidth="1"/>
+    <col min="5" max="5" width="12.125" customWidth="1"/>
+    <col min="6" max="6" width="67.875" customWidth="1"/>
+    <col min="7" max="7" width="11.875" customWidth="1"/>
+    <col min="8" max="8" width="14.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="17.25" thickTop="1">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="3">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" ht="33">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" t="s">
+        <v>67</v>
+      </c>
       <c r="D3" s="3">
         <v>5</v>
       </c>
@@ -1524,10 +2059,16 @@
         <v>5</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>103</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1535,14 +2076,25 @@
         <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D4" s="3">
         <v>10</v>
       </c>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="E4" s="3">
+        <v>3</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1553,7 +2105,7 @@
         <v>69</v>
       </c>
       <c r="D5" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E5" s="3">
         <v>3</v>
@@ -1561,83 +2113,118 @@
       <c r="F5" s="3" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D6" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E6" s="3">
         <v>3</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>93</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6">
+        <v>49</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>3</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D8" s="3">
-        <v>10</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>93</v>
+        <v>5</v>
+      </c>
+      <c r="E8" s="3">
+        <v>5</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>100</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D9" s="3">
         <v>3</v>
       </c>
       <c r="E9" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>101</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1645,202 +2232,58 @@
         <v>85</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="D10" s="3">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3">
         <v>3</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D11" s="3">
         <v>5</v>
       </c>
-      <c r="E11" s="3">
-        <v>5</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C12" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D12" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E12" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="33">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C13" t="s">
-        <v>76</v>
-      </c>
-      <c r="D13" s="3">
-        <v>3</v>
-      </c>
-      <c r="E13" s="3">
-        <v>5</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" t="s">
-        <v>85</v>
-      </c>
-      <c r="C14" t="s">
-        <v>77</v>
-      </c>
-      <c r="D14" s="3">
-        <v>5</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D15" s="3">
-        <v>3</v>
-      </c>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" s="3">
-        <v>5</v>
-      </c>
-      <c r="E16" s="3">
-        <v>5</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" t="s">
-        <v>80</v>
-      </c>
-      <c r="D17" s="3">
-        <v>5</v>
-      </c>
-      <c r="E17" s="3">
-        <v>5</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" t="s">
-        <v>87</v>
-      </c>
-      <c r="C18" t="s">
-        <v>81</v>
-      </c>
-      <c r="D18" s="3">
-        <v>5</v>
-      </c>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" t="s">
-        <v>82</v>
-      </c>
-      <c r="C19" t="s">
-        <v>82</v>
-      </c>
-      <c r="D19" s="3">
-        <v>5</v>
-      </c>
-      <c r="E19" s="3">
-        <v>10</v>
-      </c>
-      <c r="F19" s="3" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" t="s">
-        <v>84</v>
-      </c>
-      <c r="C20" t="s">
-        <v>83</v>
-      </c>
-      <c r="D20" s="3">
-        <v>5</v>
-      </c>
-      <c r="E20" s="3">
-        <v>5</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>108</v>
+      <c r="G12" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
